--- a/利润表/605186.xlsx
+++ b/利润表/605186.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>42637088.71</v>
+        <v>55401748.66</v>
       </c>
       <c r="P2" t="n">
-        <v>125613425.79</v>
+        <v>233048588.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>75505320.41</v>
+        <v>147987605.47</v>
       </c>
       <c r="R2" t="n">
-        <v>-8.7002005135</v>
+        <v>1.0454050709</v>
       </c>
       <c r="S2" t="n">
-        <v>55725493.09</v>
+        <v>85671024.20999999</v>
       </c>
       <c r="T2" t="n">
-        <v>55725493.09</v>
+        <v>85671024.20999999</v>
       </c>
       <c r="U2" t="n">
-        <v>6.2039724835</v>
+        <v>17.2540621425</v>
       </c>
       <c r="V2" t="n">
-        <v>5770679.9</v>
+        <v>30454387.73</v>
       </c>
       <c r="W2" t="n">
-        <v>7744569.2</v>
+        <v>18514204.16</v>
       </c>
       <c r="X2" t="n">
-        <v>-348369.33</v>
+        <v>-1500690.12</v>
       </c>
       <c r="Y2" t="n">
-        <v>54173438.54</v>
+        <v>83520681.84999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>53973942.97</v>
+        <v>83941585.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>7500621.73</v>
+        <v>12184693.8</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>393801.05</v>
+        <v>2637717.96</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-3.4624345301</v>
+        <v>13.638008843</v>
       </c>
       <c r="AQ2" t="n">
-        <v>12.355056907176</v>
+        <v>44.280807131286</v>
       </c>
       <c r="AR2" t="n">
-        <v>14.635113340609</v>
+        <v>214.984506523406</v>
       </c>
       <c r="AS2" t="n">
-        <v>37242325.23</v>
+        <v>47636506.43</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.752020157494</v>
+        <v>4.336453488329</v>
       </c>
     </row>
   </sheetData>
